--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92087319581495</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N2">
-        <v>4.92087319581495</v>
+        <v>24.911492</v>
       </c>
       <c r="O2">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P2">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q2">
-        <v>381.1867337211231</v>
+        <v>887.5017104841498</v>
       </c>
       <c r="R2">
-        <v>381.1867337211231</v>
+        <v>7987.515394357349</v>
       </c>
       <c r="S2">
-        <v>0.01097990827733269</v>
+        <v>0.02093991905674155</v>
       </c>
       <c r="T2">
-        <v>0.01097990827733269</v>
+        <v>0.02093991905674155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.0082873759151</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N3">
-        <v>31.0082873759151</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O3">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P3">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q3">
-        <v>2402.002106691859</v>
+        <v>3336.035798545342</v>
       </c>
       <c r="R3">
-        <v>2402.002106691859</v>
+        <v>30024.32218690808</v>
       </c>
       <c r="S3">
-        <v>0.0691885642398342</v>
+        <v>0.07871119431851417</v>
       </c>
       <c r="T3">
-        <v>0.0691885642398342</v>
+        <v>0.07871119431851417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>17.2540424267766</v>
+        <v>0.124766</v>
       </c>
       <c r="N4">
-        <v>17.2540424267766</v>
+        <v>0.374298</v>
       </c>
       <c r="O4">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P4">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q4">
-        <v>1336.553862379993</v>
+        <v>13.33481411835133</v>
       </c>
       <c r="R4">
-        <v>1336.553862379993</v>
+        <v>120.013327065162</v>
       </c>
       <c r="S4">
-        <v>0.03849881834393401</v>
+        <v>0.0003146246649177114</v>
       </c>
       <c r="T4">
-        <v>0.03849881834393401</v>
+        <v>0.0003146246649177114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.92087319581495</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N5">
-        <v>4.92087319581495</v>
+        <v>60.564773</v>
       </c>
       <c r="O5">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P5">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q5">
-        <v>378.76052300221</v>
+        <v>2157.692507240604</v>
       </c>
       <c r="R5">
-        <v>378.76052300221</v>
+        <v>19419.23256516544</v>
       </c>
       <c r="S5">
-        <v>0.01091002239516913</v>
+        <v>0.05090909224987111</v>
       </c>
       <c r="T5">
-        <v>0.01091002239516913</v>
+        <v>0.0509090922498711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.0082873759151</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N6">
-        <v>31.0082873759151</v>
+        <v>24.911492</v>
       </c>
       <c r="O6">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P6">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q6">
-        <v>2386.713633241544</v>
+        <v>641.3291144837054</v>
       </c>
       <c r="R6">
-        <v>2386.713633241544</v>
+        <v>5771.962030353348</v>
       </c>
       <c r="S6">
-        <v>0.06874818680448594</v>
+        <v>0.01513166632512126</v>
       </c>
       <c r="T6">
-        <v>0.06874818680448594</v>
+        <v>0.01513166632512126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2540424267766</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N7">
-        <v>17.2540424267766</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O7">
-        <v>0.3244265379665283</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P7">
-        <v>0.3244265379665283</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q7">
-        <v>1328.046847259988</v>
+        <v>2410.696068855898</v>
       </c>
       <c r="R7">
-        <v>1328.046847259988</v>
+        <v>21696.26461970308</v>
       </c>
       <c r="S7">
-        <v>0.03825377769202121</v>
+        <v>0.05687851635205281</v>
       </c>
       <c r="T7">
-        <v>0.03825377769202121</v>
+        <v>0.05687851635205281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.92087319581495</v>
+        <v>0.124766</v>
       </c>
       <c r="N8">
-        <v>4.92087319581495</v>
+        <v>0.374298</v>
       </c>
       <c r="O8">
-        <v>0.09252683024663116</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P8">
-        <v>0.09252683024663116</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q8">
-        <v>598.9268094390302</v>
+        <v>9.636042871018001</v>
       </c>
       <c r="R8">
-        <v>598.9268094390302</v>
+        <v>86.72438583916201</v>
       </c>
       <c r="S8">
-        <v>0.01725181085994246</v>
+        <v>0.0002273550071653771</v>
       </c>
       <c r="T8">
-        <v>0.01725181085994246</v>
+        <v>0.0002273550071653772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.0082873759151</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N9">
-        <v>31.0082873759151</v>
+        <v>60.564773</v>
       </c>
       <c r="O9">
-        <v>0.5830466317868405</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P9">
-        <v>0.5830466317868405</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q9">
-        <v>3774.064863126332</v>
+        <v>1559.198149873826</v>
       </c>
       <c r="R9">
-        <v>3774.064863126332</v>
+        <v>14032.78334886444</v>
       </c>
       <c r="S9">
-        <v>0.1087101999204097</v>
+        <v>0.03678807901560907</v>
       </c>
       <c r="T9">
-        <v>0.1087101999204097</v>
+        <v>0.03678807901560906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2540424267766</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N10">
-        <v>17.2540424267766</v>
+        <v>24.911492</v>
       </c>
       <c r="O10">
-        <v>0.3244265379665283</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P10">
-        <v>0.3244265379665283</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q10">
-        <v>2100.015214654106</v>
+        <v>1134.937158588268</v>
       </c>
       <c r="R10">
-        <v>2100.015214654106</v>
+        <v>10214.43442729441</v>
       </c>
       <c r="S10">
-        <v>0.06048997092006476</v>
+        <v>0.026777967810746</v>
       </c>
       <c r="T10">
-        <v>0.06048997092006476</v>
+        <v>0.026777967810746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H11">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.92087319581495</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N11">
-        <v>4.92087319581495</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O11">
-        <v>0.09252683024663116</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P11">
-        <v>0.09252683024663116</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q11">
-        <v>690.7270605289184</v>
+        <v>4266.122471002735</v>
       </c>
       <c r="R11">
-        <v>690.7270605289184</v>
+        <v>38395.10223902461</v>
       </c>
       <c r="S11">
-        <v>0.01989607480628564</v>
+        <v>0.1006558727421618</v>
       </c>
       <c r="T11">
-        <v>0.01989607480628564</v>
+        <v>0.1006558727421618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>31.0082873759151</v>
+        <v>0.124766</v>
       </c>
       <c r="N12">
-        <v>31.0082873759151</v>
+        <v>0.374298</v>
       </c>
       <c r="O12">
-        <v>0.5830466317868405</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P12">
-        <v>0.5830466317868405</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q12">
-        <v>4352.533044220155</v>
+        <v>17.052559862142</v>
       </c>
       <c r="R12">
-        <v>4352.533044220155</v>
+        <v>153.473038759278</v>
       </c>
       <c r="S12">
-        <v>0.1253727094148048</v>
+        <v>0.0004023420112944904</v>
       </c>
       <c r="T12">
-        <v>0.1253727094148048</v>
+        <v>0.0004023420112944904</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H13">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.2540424267766</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N13">
-        <v>17.2540424267766</v>
+        <v>60.564773</v>
       </c>
       <c r="O13">
-        <v>0.3244265379665283</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P13">
-        <v>0.3244265379665283</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q13">
-        <v>2421.894150376481</v>
+        <v>2759.257108292168</v>
       </c>
       <c r="R13">
-        <v>2421.894150376481</v>
+        <v>24833.31397462951</v>
       </c>
       <c r="S13">
-        <v>0.06976154539522152</v>
+        <v>0.06510254551831496</v>
       </c>
       <c r="T13">
-        <v>0.06976154539522152</v>
+        <v>0.06510254551831494</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H14">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92087319581495</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N14">
-        <v>4.92087319581495</v>
+        <v>24.911492</v>
       </c>
       <c r="O14">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P14">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q14">
-        <v>955.4342476478022</v>
+        <v>1191.231995972973</v>
       </c>
       <c r="R14">
-        <v>955.4342476478022</v>
+        <v>10721.08796375675</v>
       </c>
       <c r="S14">
-        <v>0.02752084339816023</v>
+        <v>0.02810620112480359</v>
       </c>
       <c r="T14">
-        <v>0.02752084339816023</v>
+        <v>0.02810620112480359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H15">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.0082873759151</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N15">
-        <v>31.0082873759151</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O15">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P15">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q15">
-        <v>6020.553373545695</v>
+        <v>4477.729491665504</v>
       </c>
       <c r="R15">
-        <v>6020.553373545695</v>
+        <v>40299.56542498953</v>
       </c>
       <c r="S15">
-        <v>0.1734192666544378</v>
+        <v>0.1056485773557669</v>
       </c>
       <c r="T15">
-        <v>0.1734192666544378</v>
+        <v>0.1056485773557669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H16">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>17.2540424267766</v>
+        <v>0.124766</v>
       </c>
       <c r="N16">
-        <v>17.2540424267766</v>
+        <v>0.374298</v>
       </c>
       <c r="O16">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P16">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q16">
-        <v>3350.036139710047</v>
+        <v>17.89839619516533</v>
       </c>
       <c r="R16">
-        <v>3350.036139710047</v>
+        <v>161.085565756488</v>
       </c>
       <c r="S16">
-        <v>0.0964962478643776</v>
+        <v>0.0004222988678723752</v>
       </c>
       <c r="T16">
-        <v>0.0964962478643776</v>
+        <v>0.0004222988678723752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H17">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.92087319581495</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N17">
-        <v>4.92087319581495</v>
+        <v>60.564773</v>
       </c>
       <c r="O17">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P17">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q17">
-        <v>207.1954851932119</v>
+        <v>2896.12101219951</v>
       </c>
       <c r="R17">
-        <v>207.1954851932119</v>
+        <v>26065.08910979559</v>
       </c>
       <c r="S17">
-        <v>0.005968170509741022</v>
+        <v>0.06833174388013669</v>
       </c>
       <c r="T17">
-        <v>0.005968170509741022</v>
+        <v>0.06833174388013667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H18">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.0082873759151</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N18">
-        <v>31.0082873759151</v>
+        <v>24.911492</v>
       </c>
       <c r="O18">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P18">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q18">
-        <v>1305.617294371119</v>
+        <v>1649.125912078994</v>
       </c>
       <c r="R18">
-        <v>1305.617294371119</v>
+        <v>14842.13320871095</v>
       </c>
       <c r="S18">
-        <v>0.03760770475286813</v>
+        <v>0.03890985527731661</v>
       </c>
       <c r="T18">
-        <v>0.03760770475286813</v>
+        <v>0.03890985527731661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H19">
+        <v>595.794632</v>
+      </c>
+      <c r="I19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.21332166666666</v>
+      </c>
+      <c r="N19">
+        <v>93.63996499999999</v>
+      </c>
+      <c r="O19">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="P19">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="Q19">
+        <v>6198.909831963097</v>
+      </c>
+      <c r="R19">
+        <v>55790.18848766787</v>
+      </c>
+      <c r="S19">
+        <v>0.1462585013504206</v>
+      </c>
+      <c r="T19">
+        <v>0.1462585013504206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H20">
+        <v>595.794632</v>
+      </c>
+      <c r="I20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.124766</v>
+      </c>
+      <c r="N20">
+        <v>0.374298</v>
+      </c>
+      <c r="O20">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="P20">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="Q20">
+        <v>24.77830435203733</v>
+      </c>
+      <c r="R20">
+        <v>223.004739168336</v>
+      </c>
+      <c r="S20">
+        <v>0.0005846250000035747</v>
+      </c>
+      <c r="T20">
+        <v>0.0005846250000035747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H21">
+        <v>595.794632</v>
+      </c>
+      <c r="I21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N21">
+        <v>60.564773</v>
+      </c>
+      <c r="O21">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P21">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q21">
+        <v>4009.351849077615</v>
+      </c>
+      <c r="R21">
+        <v>36084.16664169854</v>
+      </c>
+      <c r="S21">
+        <v>0.09459756775441361</v>
+      </c>
+      <c r="T21">
+        <v>0.09459756775441359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>17.2540424267766</v>
-      </c>
-      <c r="N19">
-        <v>17.2540424267766</v>
-      </c>
-      <c r="O19">
-        <v>0.3244265379665283</v>
-      </c>
-      <c r="P19">
-        <v>0.3244265379665283</v>
-      </c>
-      <c r="Q19">
-        <v>726.4888872163244</v>
-      </c>
-      <c r="R19">
-        <v>726.4888872163244</v>
-      </c>
-      <c r="S19">
-        <v>0.02092617775090925</v>
-      </c>
-      <c r="T19">
-        <v>0.02092617775090925</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H22">
+        <v>136.651993</v>
+      </c>
+      <c r="I22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.303830666666668</v>
+      </c>
+      <c r="N22">
+        <v>24.911492</v>
+      </c>
+      <c r="O22">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="P22">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="Q22">
+        <v>378.245003378173</v>
+      </c>
+      <c r="R22">
+        <v>3404.205030403557</v>
+      </c>
+      <c r="S22">
+        <v>0.008924399424577029</v>
+      </c>
+      <c r="T22">
+        <v>0.008924399424577029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H23">
+        <v>136.651993</v>
+      </c>
+      <c r="I23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>31.21332166666666</v>
+      </c>
+      <c r="N23">
+        <v>93.63996499999999</v>
+      </c>
+      <c r="O23">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="P23">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="Q23">
+        <v>1421.787537966694</v>
+      </c>
+      <c r="R23">
+        <v>12796.08784170024</v>
+      </c>
+      <c r="S23">
+        <v>0.03354598149975974</v>
+      </c>
+      <c r="T23">
+        <v>0.03354598149975974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H24">
+        <v>136.651993</v>
+      </c>
+      <c r="I24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.124766</v>
+      </c>
+      <c r="N24">
+        <v>0.374298</v>
+      </c>
+      <c r="O24">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="P24">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="Q24">
+        <v>5.683174186212668</v>
+      </c>
+      <c r="R24">
+        <v>51.148567675914</v>
+      </c>
+      <c r="S24">
+        <v>0.0001340901161528315</v>
+      </c>
+      <c r="T24">
+        <v>0.0001340901161528315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H25">
+        <v>136.651993</v>
+      </c>
+      <c r="I25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N25">
+        <v>60.564773</v>
+      </c>
+      <c r="O25">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P25">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q25">
+        <v>919.5885484491768</v>
+      </c>
+      <c r="R25">
+        <v>8276.29693604259</v>
+      </c>
+      <c r="S25">
+        <v>0.02169698327626617</v>
+      </c>
+      <c r="T25">
+        <v>0.02169698327626616</v>
       </c>
     </row>
   </sheetData>
